--- a/dictionaries/settlement/sle_type_dictionary.xlsx
+++ b/dictionaries/settlement/sle_type_dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>type</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>SLE</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>FARM</t>
+  </si>
+  <si>
+    <t>Avenue</t>
+  </si>
+  <si>
+    <t>AV</t>
   </si>
 </sst>
 </file>
@@ -366,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,6 +418,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
